--- a/data/hotels_by_city/Dallas/Dallas_shard_715.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_715.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,296 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r473389268-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>4605587</t>
+  </si>
+  <si>
+    <t>473389268</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Are You Kidding Me?????</t>
+  </si>
+  <si>
+    <t>OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!
+Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. 
+This is also my first posting as a real live travel agent! 
+So... why am I giving this place a "thumbs down"?  Let's get the list started!!! 
+1) At check-in, I asked about the fitness center in the facility.  The hotel advertises on Hotels.com that it has a fitness center and posted pictures of the fitness center.  I train for IRONMAN triathlons, so the fitness center is important to me. 
+Well, SURPRISE!!! the fitness center has been a storage area for months according to the manager.  So I asked what he could do about it, he promised to look into it and get back with me (usually a hotel will get a week pass to 24 Hr Fitness or a similar gym, so that was what I was expecting).
+Well, I checked out this morning (Friday, I checked in on Sunday), still no answer.... I won't hold my breath! 
+2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM...OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. This is also my first posting as a real live travel agent! So... why am I giving this place a "thumbs down"?  Let's get the list started!!! 1) At check-in, I asked about the fitness center in the facility.  The hotel advertises on Hotels.com that it has a fitness center and posted pictures of the fitness center.  I train for IRONMAN triathlons, so the fitness center is important to me. Well, SURPRISE!!! the fitness center has been a storage area for months according to the manager.  So I asked what he could do about it, he promised to look into it and get back with me (usually a hotel will get a week pass to 24 Hr Fitness or a similar gym, so that was what I was expecting).Well, I checked out this morning (Friday, I checked in on Sunday), still no answer.... I won't hold my breath! 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM flight, I was ready to hit the bed for a quick nap.  WRONG!  The manager wanted to fight me on that and tell me it was 3 PM.  So, I pulled out my printed reservation that clearly showed 1 PM.  He said he would get a maid on it, but offered no apology.  By the way, a SINCERE apology goes a LONG LONG way with me!  I completely understand people aren't perfect. 3) The towels smelled like they were washed with Windex, and were as soft as sandpaper. 4) No desk in the room! 5) The hair dryer didn't work.  I'm not a prima-donna about  my hair or anything of that nature, but I like to run the dryer quickly over my spiky hair when I get out of the shower. 6) The parking is woefully inadequate!!!  7) Thursday night is apparently  "Run the power saw in the courtyard until 11 night" at Studuio 6.8) No iron in the room, I had to check it out at the office. 9) Dog barking till 1 a.m. in a nearby room. I know management didn't put the dog there to honk me off, but at this point I want to paint as accurate picture of this shanty as possible. 10) The WI-FI did not work at all!  Thankfully I have unlimited data on my phone and was able to run a hot spot. 11) The cockroach that ran across my bathroom floor on Wednesday seemed pretty friendly. 12) The blanket was paper thin. 13) The curtain looked like Swiss Cheese in the early morning light. 14) A domestic dispute was Tuesday night's 11:23 pm entertainment... FREE OF CHARGE!!! 15) Upon check-out, they refused to print me a receipt, and told me to print it out of my confirmation e-mail.  (Seriously????)16) ONE... count 'em ONE hanger in the closet! OK, so there's my laundry list of why NOT to use this facility.  I absolutely HATE slamming a place, but this place warrants a good slamming.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!
+Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. 
+This is also my first posting as a real live travel agent! 
+So... why am I giving this place a "thumbs down"?  Let's get the list started!!! 
+1) At check-in, I asked about the fitness center in the facility.  The hotel advertises on Hotels.com that it has a fitness center and posted pictures of the fitness center.  I train for IRONMAN triathlons, so the fitness center is important to me. 
+Well, SURPRISE!!! the fitness center has been a storage area for months according to the manager.  So I asked what he could do about it, he promised to look into it and get back with me (usually a hotel will get a week pass to 24 Hr Fitness or a similar gym, so that was what I was expecting).
+Well, I checked out this morning (Friday, I checked in on Sunday), still no answer.... I won't hold my breath! 
+2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM...OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. This is also my first posting as a real live travel agent! So... why am I giving this place a "thumbs down"?  Let's get the list started!!! 1) At check-in, I asked about the fitness center in the facility.  The hotel advertises on Hotels.com that it has a fitness center and posted pictures of the fitness center.  I train for IRONMAN triathlons, so the fitness center is important to me. Well, SURPRISE!!! the fitness center has been a storage area for months according to the manager.  So I asked what he could do about it, he promised to look into it and get back with me (usually a hotel will get a week pass to 24 Hr Fitness or a similar gym, so that was what I was expecting).Well, I checked out this morning (Friday, I checked in on Sunday), still no answer.... I won't hold my breath! 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM flight, I was ready to hit the bed for a quick nap.  WRONG!  The manager wanted to fight me on that and tell me it was 3 PM.  So, I pulled out my printed reservation that clearly showed 1 PM.  He said he would get a maid on it, but offered no apology.  By the way, a SINCERE apology goes a LONG LONG way with me!  I completely understand people aren't perfect. 3) The towels smelled like they were washed with Windex, and were as soft as sandpaper. 4) No desk in the room! 5) The hair dryer didn't work.  I'm not a prima-donna about  my hair or anything of that nature, but I like to run the dryer quickly over my spiky hair when I get out of the shower. 6) The parking is woefully inadequate!!!  7) Thursday night is apparently  "Run the power saw in the courtyard until 11 night" at Studuio 6.8) No iron in the room, I had to check it out at the office. 9) Dog barking till 1 a.m. in a nearby room. I know management didn't put the dog there to honk me off, but at this point I want to paint as accurate picture of this shanty as possible. 10) The WI-FI did not work at all!  Thankfully I have unlimited data on my phone and was able to run a hot spot. 11) The cockroach that ran across my bathroom floor on Wednesday seemed pretty friendly. 12) The blanket was paper thin. 13) The curtain looked like Swiss Cheese in the early morning light. 14) A domestic dispute was Tuesday night's 11:23 pm entertainment... FREE OF CHARGE!!! 15) Upon check-out, they refused to print me a receipt, and told me to print it out of my confirmation e-mail.  (Seriously????)16) ONE... count 'em ONE hanger in the closet! OK, so there's my laundry list of why NOT to use this facility.  I absolutely HATE slamming a place, but this place warrants a good slamming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r436272098-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>436272098</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Worst motel experience ever</t>
+  </si>
+  <si>
+    <t>First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell...First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell w the window there is what looks like blood splattered on the wall and curtain. There was hair in the bed from the previous guest. We finally decided to just go to bed. Light from outside shown through the edges of the curtains so much it looked like daytime. There was commotion all night outside the room. Didn't sleep well. The room is starting to smell like an ash tray. The worst part is. We paid for 2 nights. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 DFW Airport North, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell...First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell w the window there is what looks like blood splattered on the wall and curtain. There was hair in the bed from the previous guest. We finally decided to just go to bed. Light from outside shown through the edges of the curtains so much it looked like daytime. There was commotion all night outside the room. Didn't sleep well. The room is starting to smell like an ash tray. The worst part is. We paid for 2 nights. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r430670412-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>430670412</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Will never return</t>
+  </si>
+  <si>
+    <t>Shower was black due to it not being clean, still had residue or last tenants shampoo. Three drug deals going on outside and the residents ( weekly guests) kept us up till 4 drinking. This is a dive, if I could I'd give 0 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 DFW Airport North, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Shower was black due to it not being clean, still had residue or last tenants shampoo. Three drug deals going on outside and the residents ( weekly guests) kept us up till 4 drinking. This is a dive, if I could I'd give 0 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r366471494-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>366471494</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>lots of mice, falling apart</t>
+  </si>
+  <si>
+    <t>We stayed here for two weeks. We killed/trapped four mice in a week. Killed four mice the following week, when we finally moved out. The hotel had put mice bait in the room before we moved in. One mouse found it at the end of the week and died in the wall next to the kitchen! The smell was so rancid!  One live mouse ran into the bathroom when family was in there, now they can't be in a bathroom at home without a towel at the base of the bathroom floor. I caught enough mice at this hotel to figure out what was the best way to trap them using Tomcat Snap traps.  The oven in the room was so nasty like it hadn't been cleaned in a month.  The elevator was nasty! I don't even want to know what was smeared on the windows. The tile in the elevator was all cracked and broken. One laundry room was piled high with junk and the other one didn't work well, so we traveled to laundry mats to wash our clothes. The stairs near our room were rotting. But the planes were kind of fun to watch. Just not worth the stuff we went through. If you have a cat and plan to stay here, bring the cat!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for two weeks. We killed/trapped four mice in a week. Killed four mice the following week, when we finally moved out. The hotel had put mice bait in the room before we moved in. One mouse found it at the end of the week and died in the wall next to the kitchen! The smell was so rancid!  One live mouse ran into the bathroom when family was in there, now they can't be in a bathroom at home without a towel at the base of the bathroom floor. I caught enough mice at this hotel to figure out what was the best way to trap them using Tomcat Snap traps.  The oven in the room was so nasty like it hadn't been cleaned in a month.  The elevator was nasty! I don't even want to know what was smeared on the windows. The tile in the elevator was all cracked and broken. One laundry room was piled high with junk and the other one didn't work well, so we traveled to laundry mats to wash our clothes. The stairs near our room were rotting. But the planes were kind of fun to watch. Just not worth the stuff we went through. If you have a cat and plan to stay here, bring the cat!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r305831992-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>305831992</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Scary Motel</t>
+  </si>
+  <si>
+    <t>My sister booked this motel online so she could get shuttled to the airport the next morning. She didn't look at the reviews!! Bad mistake!! As soon as we pulled up I had a bad feeling! Obvious drug activity, people loitering outside of their rooms everywhere, trash overflowing from all the outside trashcans, trash laying all over the place!! We were on the third floor(doors are facing outside) and they had an elevator but it was rickety and run down but worked and got us and all our luggage to the third floor! Filthy hallways! Door was in bad shape and we opened the door and looked in and it just looked like nothing had been done to it in a long time! Bathroom was nasty, roaches in room ! Soda machine old and broke and just took your money. Fitness room was used for storage!! Pool was filthy! Bad place for anyone to stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Studio 6 DFW Airport North, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>My sister booked this motel online so she could get shuttled to the airport the next morning. She didn't look at the reviews!! Bad mistake!! As soon as we pulled up I had a bad feeling! Obvious drug activity, people loitering outside of their rooms everywhere, trash overflowing from all the outside trashcans, trash laying all over the place!! We were on the third floor(doors are facing outside) and they had an elevator but it was rickety and run down but worked and got us and all our luggage to the third floor! Filthy hallways! Door was in bad shape and we opened the door and looked in and it just looked like nothing had been done to it in a long time! Bathroom was nasty, roaches in room ! Soda machine old and broke and just took your money. Fitness room was used for storage!! Pool was filthy! Bad place for anyone to stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r272048222-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>272048222</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>When I booked at this location, I was booking the Studio 6 Brand. I had a very pleasant stay in Florida at a Studio 6. When I walked into our room, there was a small bar fridge and a tiny microwave, and glue traps for roaches. When I called he front desk the next morning, I was told I did not book a room with a kitchenette, although all Studio 6 units come with a full kitchen for the business traveler to save money by cooking their meals in the room. When I asked what could be done about the situation, the manager answered 'I don't know.' Even though the prices are very reasonable, the location practices deceptive advertising by portraying the property as a Studio 6. If I could do this all over again, I would book somewhere else, even if I had to spend more. I really did not need the aggravation of making this sub-standard room work for the 8 days I booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Studio 6 DFW Airport North, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>When I booked at this location, I was booking the Studio 6 Brand. I had a very pleasant stay in Florida at a Studio 6. When I walked into our room, there was a small bar fridge and a tiny microwave, and glue traps for roaches. When I called he front desk the next morning, I was told I did not book a room with a kitchenette, although all Studio 6 units come with a full kitchen for the business traveler to save money by cooking their meals in the room. When I asked what could be done about the situation, the manager answered 'I don't know.' Even though the prices are very reasonable, the location practices deceptive advertising by portraying the property as a Studio 6. If I could do this all over again, I would book somewhere else, even if I had to spend more. I really did not need the aggravation of making this sub-standard room work for the 8 days I booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r224930837-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>224930837</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Don't do it!</t>
+  </si>
+  <si>
+    <t>I would have rated this place with all zeros if possible. They don't clean their linens, they charge you even if you don't stay and corporate can't do much because they are independently owned. If I were Motel 6 I'd make them lose my name off their building. I've stayed at many hotels but none like these. I was supposed to stay a week but chose my car  instead. If you need an extended stay try a value place extended stay in trophy club or the days in across the highway for shorter stay times. I would hate for anyone to deal with what my family had to with this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I would have rated this place with all zeros if possible. They don't clean their linens, they charge you even if you don't stay and corporate can't do much because they are independently owned. If I were Motel 6 I'd make them lose my name off their building. I've stayed at many hotels but none like these. I was supposed to stay a week but chose my car  instead. If you need an extended stay try a value place extended stay in trophy club or the days in across the highway for shorter stay times. I would hate for anyone to deal with what my family had to with this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r223386742-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>223386742</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>not worth it</t>
+  </si>
+  <si>
+    <t>It's cheap, but I was ripped off on credit card for about $100 -  Not cheap anymore.Pool was closed by order of city, Door lock broken, shower curtain rod broken, almost nothing in the "full kitchen"A few bugs, dirty and dingy room, Only good thing was it was close to where I was working.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r223026607-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>223026607</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Awful-worst ever</t>
+  </si>
+  <si>
+    <t>Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the...Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the manager comes in I told the guy that me and my family didn't have anywhere to go we have been sleeping in the car up until now, he said there's nothing that he can do for me. So I asked him if we could sleep in our car in the parking lot and he replied that it was ok so I guess that was a positive. Finally when the manager came in at 0900 the guy went back to talk to him the manager insisted on giving us one more room before giving us a refund I checked out the room anyway and of course it was dirty to. I told them no way give me a refund the guy finally came back to the desk and said my manager said that I can give you a refund but he's going to charge you 51.99 the price for one night I said no way we didn't even stay here eventually I accepted the partial refund thinking that I could handle the situation through corporate but was told today that it is privately owned and operated and it was up to the management for the refund. So thanks Motel 6 You can leave the light on for someone but it won't be me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the...Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the manager comes in I told the guy that me and my family didn't have anywhere to go we have been sleeping in the car up until now, he said there's nothing that he can do for me. So I asked him if we could sleep in our car in the parking lot and he replied that it was ok so I guess that was a positive. Finally when the manager came in at 0900 the guy went back to talk to him the manager insisted on giving us one more room before giving us a refund I checked out the room anyway and of course it was dirty to. I told them no way give me a refund the guy finally came back to the desk and said my manager said that I can give you a refund but he's going to charge you 51.99 the price for one night I said no way we didn't even stay here eventually I accepted the partial refund thinking that I could handle the situation through corporate but was told today that it is privately owned and operated and it was up to the management for the refund. So thanks Motel 6 You can leave the light on for someone but it won't be me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r199506335-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>199506335</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Terrible service and manangement</t>
+  </si>
+  <si>
+    <t>They are only interested in your money I stayed there for business for two weeks fisrt it took them a week to get me a working phone. Next housekeeping will not change yiur sheets had ti go to the local walmart and purchase some if you like to iche and scratch this is the place for you bed bugs and management doesn't even care worst experience of a extended stay hotel ive ever lived</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r199450378-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>199450378</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Carpet stains, filth smells of cleaning agents to TRY to mask animal smells. The bathroom door frame has been chewed up. Couch so filthy we can't sit on it. It is an extended stay...no pots, pans or dishes. 3 forks one nasty looking dish towel. That's it. Coffee pot has no lid.Swimming pool is green. This is (yes I'm here now) just until my flight at 5 a.m.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r194909348-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>194909348</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Good Place To Stay When Coming To NASCAR</t>
+  </si>
+  <si>
+    <t>My GF and I stay here often and its a conveinant location to track. Its also got a nice jaccuzzi area ,and it has an open big area for of pets. They hotel is pet friendly which we totally appreciate. The price points are reasonable considering the nice area. We have friends in bot Dallas and Fort Worth,so its right in between them. I would reccommend this hotel.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
 </sst>
 </file>
@@ -648,6 +938,766 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_715.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_715.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>ChrisM80226</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -197,6 +200,9 @@
 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM...OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. This is also my first posting as a real live travel agent! So... why am I giving this place a "thumbs down"?  Let's get the list started!!! 1) At check-in, I asked about the fitness center in the facility.  The hotel advertises on Hotels.com that it has a fitness center and posted pictures of the fitness center.  I train for IRONMAN triathlons, so the fitness center is important to me. Well, SURPRISE!!! the fitness center has been a storage area for months according to the manager.  So I asked what he could do about it, he promised to look into it and get back with me (usually a hotel will get a week pass to 24 Hr Fitness or a similar gym, so that was what I was expecting).Well, I checked out this morning (Friday, I checked in on Sunday), still no answer.... I won't hold my breath! 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM flight, I was ready to hit the bed for a quick nap.  WRONG!  The manager wanted to fight me on that and tell me it was 3 PM.  So, I pulled out my printed reservation that clearly showed 1 PM.  He said he would get a maid on it, but offered no apology.  By the way, a SINCERE apology goes a LONG LONG way with me!  I completely understand people aren't perfect. 3) The towels smelled like they were washed with Windex, and were as soft as sandpaper. 4) No desk in the room! 5) The hair dryer didn't work.  I'm not a prima-donna about  my hair or anything of that nature, but I like to run the dryer quickly over my spiky hair when I get out of the shower. 6) The parking is woefully inadequate!!!  7) Thursday night is apparently  "Run the power saw in the courtyard until 11 night" at Studuio 6.8) No iron in the room, I had to check it out at the office. 9) Dog barking till 1 a.m. in a nearby room. I know management didn't put the dog there to honk me off, but at this point I want to paint as accurate picture of this shanty as possible. 10) The WI-FI did not work at all!  Thankfully I have unlimited data on my phone and was able to run a hot spot. 11) The cockroach that ran across my bathroom floor on Wednesday seemed pretty friendly. 12) The blanket was paper thin. 13) The curtain looked like Swiss Cheese in the early morning light. 14) A domestic dispute was Tuesday night's 11:23 pm entertainment... FREE OF CHARGE!!! 15) Upon check-out, they refused to print me a receipt, and told me to print it out of my confirmation e-mail.  (Seriously????)16) ONE... count 'em ONE hanger in the closet! OK, so there's my laundry list of why NOT to use this facility.  I absolutely HATE slamming a place, but this place warrants a good slamming.More</t>
   </si>
   <si>
+    <t>David T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r436272098-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
     <t>First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell...First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell w the window there is what looks like blood splattered on the wall and curtain. There was hair in the bed from the previous guest. We finally decided to just go to bed. Light from outside shown through the edges of the curtains so much it looked like daytime. There was commotion all night outside the room. Didn't sleep well. The room is starting to smell like an ash tray. The worst part is. We paid for 2 nights. More</t>
   </si>
   <si>
+    <t>Kelly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r430670412-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -257,6 +266,9 @@
     <t>Shower was black due to it not being clean, still had residue or last tenants shampoo. Three drug deals going on outside and the residents ( weekly guests) kept us up till 4 drinking. This is a dive, if I could I'd give 0 stars.More</t>
   </si>
   <si>
+    <t>T N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r366471494-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -278,6 +290,9 @@
     <t>We stayed here for two weeks. We killed/trapped four mice in a week. Killed four mice the following week, when we finally moved out. The hotel had put mice bait in the room before we moved in. One mouse found it at the end of the week and died in the wall next to the kitchen! The smell was so rancid!  One live mouse ran into the bathroom when family was in there, now they can't be in a bathroom at home without a towel at the base of the bathroom floor. I caught enough mice at this hotel to figure out what was the best way to trap them using Tomcat Snap traps.  The oven in the room was so nasty like it hadn't been cleaned in a month.  The elevator was nasty! I don't even want to know what was smeared on the windows. The tile in the elevator was all cracked and broken. One laundry room was piled high with junk and the other one didn't work well, so we traveled to laundry mats to wash our clothes. The stairs near our room were rotting. But the planes were kind of fun to watch. Just not worth the stuff we went through. If you have a cat and plan to stay here, bring the cat!!!More</t>
   </si>
   <si>
+    <t>Alissa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r305831992-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
     <t>My sister booked this motel online so she could get shuttled to the airport the next morning. She didn't look at the reviews!! Bad mistake!! As soon as we pulled up I had a bad feeling! Obvious drug activity, people loitering outside of their rooms everywhere, trash overflowing from all the outside trashcans, trash laying all over the place!! We were on the third floor(doors are facing outside) and they had an elevator but it was rickety and run down but worked and got us and all our luggage to the third floor! Filthy hallways! Door was in bad shape and we opened the door and looked in and it just looked like nothing had been done to it in a long time! Bathroom was nasty, roaches in room ! Soda machine old and broke and just took your money. Fitness room was used for storage!! Pool was filthy! Bad place for anyone to stay!!More</t>
   </si>
   <si>
+    <t>Tammy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r272048222-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -332,6 +350,9 @@
     <t>When I booked at this location, I was booking the Studio 6 Brand. I had a very pleasant stay in Florida at a Studio 6. When I walked into our room, there was a small bar fridge and a tiny microwave, and glue traps for roaches. When I called he front desk the next morning, I was told I did not book a room with a kitchenette, although all Studio 6 units come with a full kitchen for the business traveler to save money by cooking their meals in the room. When I asked what could be done about the situation, the manager answered 'I don't know.' Even though the prices are very reasonable, the location practices deceptive advertising by portraying the property as a Studio 6. If I could do this all over again, I would book somewhere else, even if I had to spend more. I really did not need the aggravation of making this sub-standard room work for the 8 days I booked.More</t>
   </si>
   <si>
+    <t>Heather N. T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r224930837-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -350,6 +371,9 @@
     <t>I would have rated this place with all zeros if possible. They don't clean their linens, they charge you even if you don't stay and corporate can't do much because they are independently owned. If I were Motel 6 I'd make them lose my name off their building. I've stayed at many hotels but none like these. I was supposed to stay a week but chose my car  instead. If you need an extended stay try a value place extended stay in trophy club or the days in across the highway for shorter stay times. I would hate for anyone to deal with what my family had to with this hotel.More</t>
   </si>
   <si>
+    <t>Charlie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r223386742-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -368,6 +392,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Bthrasher35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r223026607-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -386,6 +413,9 @@
     <t>Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the...Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the manager comes in I told the guy that me and my family didn't have anywhere to go we have been sleeping in the car up until now, he said there's nothing that he can do for me. So I asked him if we could sleep in our car in the parking lot and he replied that it was ok so I guess that was a positive. Finally when the manager came in at 0900 the guy went back to talk to him the manager insisted on giving us one more room before giving us a refund I checked out the room anyway and of course it was dirty to. I told them no way give me a refund the guy finally came back to the desk and said my manager said that I can give you a refund but he's going to charge you 51.99 the price for one night I said no way we didn't even stay here eventually I accepted the partial refund thinking that I could handle the situation through corporate but was told today that it is privately owned and operated and it was up to the management for the refund. So thanks Motel 6 You can leave the light on for someone but it won't be me.More</t>
   </si>
   <si>
+    <t>john j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r199506335-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -401,6 +431,9 @@
     <t>They are only interested in your money I stayed there for business for two weeks fisrt it took them a week to get me a working phone. Next housekeeping will not change yiur sheets had ti go to the local walmart and purchase some if you like to iche and scratch this is the place for you bed bugs and management doesn't even care worst experience of a extended stay hotel ive ever lived</t>
   </si>
   <si>
+    <t>MARILYN P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r199450378-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
   </si>
   <si>
     <t>March 2014</t>
+  </si>
+  <si>
+    <t>K M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r194909348-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
@@ -942,43 +978,47 @@
       <c r="A2" t="n">
         <v>19032</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178303</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -998,50 +1038,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19032</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>9377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1053,56 +1097,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19032</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>8503</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1114,56 +1162,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19032</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>82564</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1181,50 +1233,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19032</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1236,56 +1292,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19032</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>5581</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1303,47 +1363,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19032</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1372,50 +1436,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19032</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>38715</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1435,41 +1503,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19032</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1498,41 +1570,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19032</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>8368</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1561,50 +1637,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19032</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1628,50 +1708,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19032</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>22786</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1695,7 +1779,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_715.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_715.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>STR#</t>
   </si>
@@ -150,19 +150,116 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>ChrisM80226</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r588029126-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>4605587</t>
+  </si>
+  <si>
+    <t>588029126</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Completely Disgusting</t>
+  </si>
+  <si>
+    <t>Studio 6 Dallas - Irving DFW Airport North #5037
+4100 W. John Carpenter Freeway - Irving, TX 75063
+I made my reservation based on the pictures and video of the condition of this Motel which turned out to be a bold face lie and false advertizing. I have see rooms in shanty towns and 3rd world countries in better condition!
+I booked a King Suite smoking for 6-13-18 and when I arrived and checked in I was given a 3rd floor Double Bed Suite with the AC in the complete off position, it must have been 108 degrees in that room.
+I am 6-4 foot tall so a single full just does not cut it for me to sleep. So I went to the front desk and made it cleared what I had booked and demanded my reservation be met. What I was given was a room now on the 1st floor this would not be an issue for the norm but I have 1st stage Parkinson so now I had to lug a suitcase and backpack back down 3 flights of stairs that I had just taken up 3 flights of stairs. Also I was informed the ice machines were broken on all floors and had been for more than a month. At least when I got into the 2nd room the air was on.
+Now let’s start with the room:
+It was filthy beyond filthy, floor were sticky,...Studio 6 Dallas - Irving DFW Airport North #50374100 W. John Carpenter Freeway - Irving, TX 75063I made my reservation based on the pictures and video of the condition of this Motel which turned out to be a bold face lie and false advertizing. I have see rooms in shanty towns and 3rd world countries in better condition!I booked a King Suite smoking for 6-13-18 and when I arrived and checked in I was given a 3rd floor Double Bed Suite with the AC in the complete off position, it must have been 108 degrees in that room.I am 6-4 foot tall so a single full just does not cut it for me to sleep. So I went to the front desk and made it cleared what I had booked and demanded my reservation be met. What I was given was a room now on the 1st floor this would not be an issue for the norm but I have 1st stage Parkinson so now I had to lug a suitcase and backpack back down 3 flights of stairs that I had just taken up 3 flights of stairs. Also I was informed the ice machines were broken on all floors and had been for more than a month. At least when I got into the 2nd room the air was on.Now let’s start with the room:It was filthy beyond filthy, floor were sticky, unfit to walk on and damaged beyond belief, the paint on the walls was dirty, scraped marked and stained, there was no TV remote and when I pressed the power button I could see why it was broken, none of the push button controls worked correctly and when I did get to come on the picture was a double exposure thus completely unwatchable. The refrigerator looked like it came from a junk yard and the kitchen sink facet was loose and detached from the sink. The coffee maker was broken.The toilet stool had urine and fecal stains all under the seat. There was no smoke detector which I am sure is a code violation not to mention the overall room is a health care violation.The room couch was ripped open on the back facing my bed and had various puncture marks throughout.There were old AC units spread in various parts of the courtyards like a junk pile and the pool area was drained and looked like it had not been used in years this place is a complete disaster and needs to be bulldozed!When I tried to get my paid receipt he said there was no way to print it and I had to get it from the main site? Personally, I believe he was just too damn lazy to get up.Totally disgusting all the way around!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Studio 6 DFW Airport North, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Studio 6 Dallas - Irving DFW Airport North #5037
+4100 W. John Carpenter Freeway - Irving, TX 75063
+I made my reservation based on the pictures and video of the condition of this Motel which turned out to be a bold face lie and false advertizing. I have see rooms in shanty towns and 3rd world countries in better condition!
+I booked a King Suite smoking for 6-13-18 and when I arrived and checked in I was given a 3rd floor Double Bed Suite with the AC in the complete off position, it must have been 108 degrees in that room.
+I am 6-4 foot tall so a single full just does not cut it for me to sleep. So I went to the front desk and made it cleared what I had booked and demanded my reservation be met. What I was given was a room now on the 1st floor this would not be an issue for the norm but I have 1st stage Parkinson so now I had to lug a suitcase and backpack back down 3 flights of stairs that I had just taken up 3 flights of stairs. Also I was informed the ice machines were broken on all floors and had been for more than a month. At least when I got into the 2nd room the air was on.
+Now let’s start with the room:
+It was filthy beyond filthy, floor were sticky,...Studio 6 Dallas - Irving DFW Airport North #50374100 W. John Carpenter Freeway - Irving, TX 75063I made my reservation based on the pictures and video of the condition of this Motel which turned out to be a bold face lie and false advertizing. I have see rooms in shanty towns and 3rd world countries in better condition!I booked a King Suite smoking for 6-13-18 and when I arrived and checked in I was given a 3rd floor Double Bed Suite with the AC in the complete off position, it must have been 108 degrees in that room.I am 6-4 foot tall so a single full just does not cut it for me to sleep. So I went to the front desk and made it cleared what I had booked and demanded my reservation be met. What I was given was a room now on the 1st floor this would not be an issue for the norm but I have 1st stage Parkinson so now I had to lug a suitcase and backpack back down 3 flights of stairs that I had just taken up 3 flights of stairs. Also I was informed the ice machines were broken on all floors and had been for more than a month. At least when I got into the 2nd room the air was on.Now let’s start with the room:It was filthy beyond filthy, floor were sticky, unfit to walk on and damaged beyond belief, the paint on the walls was dirty, scraped marked and stained, there was no TV remote and when I pressed the power button I could see why it was broken, none of the push button controls worked correctly and when I did get to come on the picture was a double exposure thus completely unwatchable. The refrigerator looked like it came from a junk yard and the kitchen sink facet was loose and detached from the sink. The coffee maker was broken.The toilet stool had urine and fecal stains all under the seat. There was no smoke detector which I am sure is a code violation not to mention the overall room is a health care violation.The room couch was ripped open on the back facing my bed and had various puncture marks throughout.There were old AC units spread in various parts of the courtyards like a junk pile and the pool area was drained and looked like it had not been used in years this place is a complete disaster and needs to be bulldozed!When I tried to get my paid receipt he said there was no way to print it and I had to get it from the main site? Personally, I believe he was just too damn lazy to get up.Totally disgusting all the way around!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r586296698-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>586296698</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Where do I start...I just caught my hand on a rusty nail when I was reaching for the light switch in the bathroom. The door frame is split from someone kicking the door in, causing the nail to pop out. The "beds" are a mattress on a piece of plywood with a base made of 2"x12"s. I decided for some strange reason to see why the pillows on one bed were soo different from the 2 on the other. OMG they are pillows left by a previous guest and reused! Check out the pics...yellow, drool stains and I'm not sure what that is on the label...makeup or blood. I take them to the front desk and tell the guy to look. He says I see it. He takes me to the laundry room...no more pillows, have to wait until morning. I'm thoroughly pissed and disgusted. Will be calling health department and fire department since I cant find any  sort of fire alarm/detector. If I could give 1/2 or no stars I wouldMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Studio 6 DFW Airport North, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Where do I start...I just caught my hand on a rusty nail when I was reaching for the light switch in the bathroom. The door frame is split from someone kicking the door in, causing the nail to pop out. The "beds" are a mattress on a piece of plywood with a base made of 2"x12"s. I decided for some strange reason to see why the pillows on one bed were soo different from the 2 on the other. OMG they are pillows left by a previous guest and reused! Check out the pics...yellow, drool stains and I'm not sure what that is on the label...makeup or blood. I take them to the front desk and tell the guy to look. He says I see it. He takes me to the laundry room...no more pillows, have to wait until morning. I'm thoroughly pissed and disgusted. Will be calling health department and fire department since I cant find any  sort of fire alarm/detector. If I could give 1/2 or no stars I wouldMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r478981401-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>478981401</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Worst place ever!</t>
+  </si>
+  <si>
+    <t>I usually read Amazon.com when making purchase of a new product. Not sure why I didn't read reviews for this dump before making reservations. I could've saved myself the hassle.
+Upon arrival, I was not impressed with the parking lot being filled with what appeared to be disabled cars. Still, I went inside, checked in. I had called earlier in the week to be sure it had 'kitchen' amnenities. I'm on a strict diet and needed a refrigerator and other kitchen items for the 4-night stay in Iriving. The clerk I'd spoken with on the phone assured me that the hotel had these amenities.
+As I parked and went to my room, I noticed the outside looked unkempt and extremely low caliber. Once inside, I almost dropped my purse in shock. The room looked like a seedy motel room from the 1970's. The lights were dim, the walls and furniture looked like it was 50 years old, including a big leather chair against the wall.  There was no 'kitchen' but a big old-fashioned refrigerator stood next to the TV. Beside it was a small table with a microwave. The wall next to the big chair had big black stains which looked suspiciously like mold. I was afraid to sit down. I walked into the bathroom.  It also was old and had a germy look. I sat for a few minutes, before I decided I could not stay in such a...I usually read Amazon.com when making purchase of a new product. Not sure why I didn't read reviews for this dump before making reservations. I could've saved myself the hassle.Upon arrival, I was not impressed with the parking lot being filled with what appeared to be disabled cars. Still, I went inside, checked in. I had called earlier in the week to be sure it had 'kitchen' amnenities. I'm on a strict diet and needed a refrigerator and other kitchen items for the 4-night stay in Iriving. The clerk I'd spoken with on the phone assured me that the hotel had these amenities.As I parked and went to my room, I noticed the outside looked unkempt and extremely low caliber. Once inside, I almost dropped my purse in shock. The room looked like a seedy motel room from the 1970's. The lights were dim, the walls and furniture looked like it was 50 years old, including a big leather chair against the wall.  There was no 'kitchen' but a big old-fashioned refrigerator stood next to the TV. Beside it was a small table with a microwave. The wall next to the big chair had big black stains which looked suspiciously like mold. I was afraid to sit down. I walked into the bathroom.  It also was old and had a germy look. I sat for a few minutes, before I decided I could not stay in such a place. I've been in a number of hotels before. This was the worst ever. Not knowing if I could get back my money, (I had to pay the entire amount upfront), I marched back to the front desk, thinking I would have to argue get my money refunded. It had not been 30 minutes since I'd checked in. Thankfully, the Front Desk Clerk Viver (I may not have his name right) was the only bright spot in the entire experience. He didn't argue or make things difficult. He just said, okay, he could void the transaction. Within 5 minutes, he had voided the transaction, including Day 1, handed me a receipt and I was on my way out. Because of the clerk's kind attitude, I am giving 2 stars instead of 1.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Studio 6 DFW Airport North, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>I usually read Amazon.com when making purchase of a new product. Not sure why I didn't read reviews for this dump before making reservations. I could've saved myself the hassle.
+Upon arrival, I was not impressed with the parking lot being filled with what appeared to be disabled cars. Still, I went inside, checked in. I had called earlier in the week to be sure it had 'kitchen' amnenities. I'm on a strict diet and needed a refrigerator and other kitchen items for the 4-night stay in Iriving. The clerk I'd spoken with on the phone assured me that the hotel had these amenities.
+As I parked and went to my room, I noticed the outside looked unkempt and extremely low caliber. Once inside, I almost dropped my purse in shock. The room looked like a seedy motel room from the 1970's. The lights were dim, the walls and furniture looked like it was 50 years old, including a big leather chair against the wall.  There was no 'kitchen' but a big old-fashioned refrigerator stood next to the TV. Beside it was a small table with a microwave. The wall next to the big chair had big black stains which looked suspiciously like mold. I was afraid to sit down. I walked into the bathroom.  It also was old and had a germy look. I sat for a few minutes, before I decided I could not stay in such a...I usually read Amazon.com when making purchase of a new product. Not sure why I didn't read reviews for this dump before making reservations. I could've saved myself the hassle.Upon arrival, I was not impressed with the parking lot being filled with what appeared to be disabled cars. Still, I went inside, checked in. I had called earlier in the week to be sure it had 'kitchen' amnenities. I'm on a strict diet and needed a refrigerator and other kitchen items for the 4-night stay in Iriving. The clerk I'd spoken with on the phone assured me that the hotel had these amenities.As I parked and went to my room, I noticed the outside looked unkempt and extremely low caliber. Once inside, I almost dropped my purse in shock. The room looked like a seedy motel room from the 1970's. The lights were dim, the walls and furniture looked like it was 50 years old, including a big leather chair against the wall.  There was no 'kitchen' but a big old-fashioned refrigerator stood next to the TV. Beside it was a small table with a microwave. The wall next to the big chair had big black stains which looked suspiciously like mold. I was afraid to sit down. I walked into the bathroom.  It also was old and had a germy look. I sat for a few minutes, before I decided I could not stay in such a place. I've been in a number of hotels before. This was the worst ever. Not knowing if I could get back my money, (I had to pay the entire amount upfront), I marched back to the front desk, thinking I would have to argue get my money refunded. It had not been 30 minutes since I'd checked in. Thankfully, the Front Desk Clerk Viver (I may not have his name right) was the only bright spot in the entire experience. He didn't argue or make things difficult. He just said, okay, he could void the transaction. Within 5 minutes, he had voided the transaction, including Day 1, handed me a receipt and I was on my way out. Because of the clerk's kind attitude, I am giving 2 stars instead of 1.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r473389268-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
-  </si>
-  <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>4605587</t>
   </si>
   <si>
     <t>473389268</t>
@@ -184,12 +281,6 @@
 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM...OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. This is also my first posting as a real live travel agent! So... why am I giving this place a "thumbs down"?  Let's get the list started!!! 1) At check-in, I asked about the fitness center in the facility.  The hotel advertises on Hotels.com that it has a fitness center and posted pictures of the fitness center.  I train for IRONMAN triathlons, so the fitness center is important to me. Well, SURPRISE!!! the fitness center has been a storage area for months according to the manager.  So I asked what he could do about it, he promised to look into it and get back with me (usually a hotel will get a week pass to 24 Hr Fitness or a similar gym, so that was what I was expecting).Well, I checked out this morning (Friday, I checked in on Sunday), still no answer.... I won't hold my breath! 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM flight, I was ready to hit the bed for a quick nap.  WRONG!  The manager wanted to fight me on that and tell me it was 3 PM.  So, I pulled out my printed reservation that clearly showed 1 PM.  He said he would get a maid on it, but offered no apology.  By the way, a SINCERE apology goes a LONG LONG way with me!  I completely understand people aren't perfect. 3) The towels smelled like they were washed with Windex, and were as soft as sandpaper. 4) No desk in the room! 5) The hair dryer didn't work.  I'm not a prima-donna about  my hair or anything of that nature, but I like to run the dryer quickly over my spiky hair when I get out of the shower. 6) The parking is woefully inadequate!!!  7) Thursday night is apparently  "Run the power saw in the courtyard until 11 night" at Studuio 6.8) No iron in the room, I had to check it out at the office. 9) Dog barking till 1 a.m. in a nearby room. I know management didn't put the dog there to honk me off, but at this point I want to paint as accurate picture of this shanty as possible. 10) The WI-FI did not work at all!  Thankfully I have unlimited data on my phone and was able to run a hot spot. 11) The cockroach that ran across my bathroom floor on Wednesday seemed pretty friendly. 12) The blanket was paper thin. 13) The curtain looked like Swiss Cheese in the early morning light. 14) A domestic dispute was Tuesday night's 11:23 pm entertainment... FREE OF CHARGE!!! 15) Upon check-out, they refused to print me a receipt, and told me to print it out of my confirmation e-mail.  (Seriously????)16) ONE... count 'em ONE hanger in the closet! OK, so there's my laundry list of why NOT to use this facility.  I absolutely HATE slamming a place, but this place warrants a good slamming.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!
 Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. 
 This is also my first posting as a real live travel agent! 
@@ -200,9 +291,6 @@
 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM...OK, boys and girls, most of you who have read me in the past know I am quick to praise and slow to criticize.   Well, this week's experience has warranted an immediate public thumbs down!Normally, if I am traveling alone, I need a bed to sleep in, a fitness center and that's about all the amenities I need.  So, I chose to go low end for this trip. This is also my first posting as a real live travel agent! So... why am I giving this place a "thumbs down"?  Let's get the list started!!! 1) At check-in, I asked about the fitness center in the facility.  The hotel advertises on Hotels.com that it has a fitness center and posted pictures of the fitness center.  I train for IRONMAN triathlons, so the fitness center is important to me. Well, SURPRISE!!! the fitness center has been a storage area for months according to the manager.  So I asked what he could do about it, he promised to look into it and get back with me (usually a hotel will get a week pass to 24 Hr Fitness or a similar gym, so that was what I was expecting).Well, I checked out this morning (Friday, I checked in on Sunday), still no answer.... I won't hold my breath! 2) While we're still at the front desk for check-in, let's talk check-in time.  My confirmation said 1PM.  After a 6 AM flight, I was ready to hit the bed for a quick nap.  WRONG!  The manager wanted to fight me on that and tell me it was 3 PM.  So, I pulled out my printed reservation that clearly showed 1 PM.  He said he would get a maid on it, but offered no apology.  By the way, a SINCERE apology goes a LONG LONG way with me!  I completely understand people aren't perfect. 3) The towels smelled like they were washed with Windex, and were as soft as sandpaper. 4) No desk in the room! 5) The hair dryer didn't work.  I'm not a prima-donna about  my hair or anything of that nature, but I like to run the dryer quickly over my spiky hair when I get out of the shower. 6) The parking is woefully inadequate!!!  7) Thursday night is apparently  "Run the power saw in the courtyard until 11 night" at Studuio 6.8) No iron in the room, I had to check it out at the office. 9) Dog barking till 1 a.m. in a nearby room. I know management didn't put the dog there to honk me off, but at this point I want to paint as accurate picture of this shanty as possible. 10) The WI-FI did not work at all!  Thankfully I have unlimited data on my phone and was able to run a hot spot. 11) The cockroach that ran across my bathroom floor on Wednesday seemed pretty friendly. 12) The blanket was paper thin. 13) The curtain looked like Swiss Cheese in the early morning light. 14) A domestic dispute was Tuesday night's 11:23 pm entertainment... FREE OF CHARGE!!! 15) Upon check-out, they refused to print me a receipt, and told me to print it out of my confirmation e-mail.  (Seriously????)16) ONE... count 'em ONE hanger in the closet! OK, so there's my laundry list of why NOT to use this facility.  I absolutely HATE slamming a place, but this place warrants a good slamming.More</t>
   </si>
   <si>
-    <t>David T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r436272098-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -233,9 +321,6 @@
     <t>First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell...First impression of the hotel was the manager calling us asking if he can go ahead and charge our credit card for the room. This was probably because they were going to charge us 10 dollars more. There is VERY little parking. Had to drive around several times in order to park in a spot nowhere near our room. There were cars on trailers and cars with notes in the window saying "do not tow". We checked in and as stated earlier we were told it was $10 more. Luckily we had our confirmation email on hand. We walked to our room(which was scary). First thought once in the room was "this is a good sized room". This room truly has potential to be a very nice room. However, neglect has made it unsafe and gross. In the electrical outlet near the door there was a piece of metal sticking out of it (a prong from a charger most likely). The walls were scarred and very dirty. Especially around doorknobs and light switches. Dishes in the cabinets were dirty. Only one burner on the stove worked. There were cigarette burns in the comforter ( this is supposed to be a non smoking room) in the bathroom there were multiple cigarette burns  along the counter and in the sink. Toilet paper was almost empty. Above the shower there were large amounts of black mold along some sort of access hatch.  Bell w the window there is what looks like blood splattered on the wall and curtain. There was hair in the bed from the previous guest. We finally decided to just go to bed. Light from outside shown through the edges of the curtains so much it looked like daytime. There was commotion all night outside the room. Didn't sleep well. The room is starting to smell like an ash tray. The worst part is. We paid for 2 nights. More</t>
   </si>
   <si>
-    <t>Kelly M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r430670412-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -254,9 +339,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Studio 6 DFW Airport North, responded to this reviewResponded October 27, 2016</t>
   </si>
   <si>
@@ -266,7 +348,49 @@
     <t>Shower was black due to it not being clean, still had residue or last tenants shampoo. Three drug deals going on outside and the residents ( weekly guests) kept us up till 4 drinking. This is a dive, if I could I'd give 0 stars.More</t>
   </si>
   <si>
-    <t>T N</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r387765600-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>387765600</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Disgusting!!!</t>
+  </si>
+  <si>
+    <t>I was "upgraded" to a two room suite (?) with a kitchen and living room. It's more like a two bedroom apartment... I immediately saw cockroaches on the floor, so I didn't put my bags down. There was hair on one of the beds, clearly not cleaned sheets... The bathrooms had pee drippings on the toilet, so the bathrooms were clearly not cleaned. The walls are all scratched up....it's a total dump. Luckily I was only here for a layover. Even so, I've been in hostels that are cleaner AND cheaper than this place.I do NOT recommend this place.I don't know how I missed the bad reviews!The shuttle was not available late at night, when my flight got in, so I took a taxi. I will see what happens when I go to the airport in a few minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was "upgraded" to a two room suite (?) with a kitchen and living room. It's more like a two bedroom apartment... I immediately saw cockroaches on the floor, so I didn't put my bags down. There was hair on one of the beds, clearly not cleaned sheets... The bathrooms had pee drippings on the toilet, so the bathrooms were clearly not cleaned. The walls are all scratched up....it's a total dump. Luckily I was only here for a layover. Even so, I've been in hostels that are cleaner AND cheaper than this place.I do NOT recommend this place.I don't know how I missed the bad reviews!The shuttle was not available late at night, when my flight got in, so I took a taxi. I will see what happens when I go to the airport in a few minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r385790854-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>385790854</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will never stay again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took a trip with a friend to Wrestlemania in Arlington. Friend reserved this hotel because of cheap price. Hotel was in very poor condition, shower was broken -- was only give out scalding hot shower, could not adjust temp. Sink was rusted. Rented a nonsmoking room, found cigarette butts under chair in room. Constant smell of smoke throughout. Mattress/sheets felt dirty and grimy with gritty feeling. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r366471494-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
@@ -290,9 +414,6 @@
     <t>We stayed here for two weeks. We killed/trapped four mice in a week. Killed four mice the following week, when we finally moved out. The hotel had put mice bait in the room before we moved in. One mouse found it at the end of the week and died in the wall next to the kitchen! The smell was so rancid!  One live mouse ran into the bathroom when family was in there, now they can't be in a bathroom at home without a towel at the base of the bathroom floor. I caught enough mice at this hotel to figure out what was the best way to trap them using Tomcat Snap traps.  The oven in the room was so nasty like it hadn't been cleaned in a month.  The elevator was nasty! I don't even want to know what was smeared on the windows. The tile in the elevator was all cracked and broken. One laundry room was piled high with junk and the other one didn't work well, so we traveled to laundry mats to wash our clothes. The stairs near our room were rotting. But the planes were kind of fun to watch. Just not worth the stuff we went through. If you have a cat and plan to stay here, bring the cat!!!More</t>
   </si>
   <si>
-    <t>Alissa W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r305831992-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -320,9 +441,6 @@
     <t>My sister booked this motel online so she could get shuttled to the airport the next morning. She didn't look at the reviews!! Bad mistake!! As soon as we pulled up I had a bad feeling! Obvious drug activity, people loitering outside of their rooms everywhere, trash overflowing from all the outside trashcans, trash laying all over the place!! We were on the third floor(doors are facing outside) and they had an elevator but it was rickety and run down but worked and got us and all our luggage to the third floor! Filthy hallways! Door was in bad shape and we opened the door and looked in and it just looked like nothing had been done to it in a long time! Bathroom was nasty, roaches in room ! Soda machine old and broke and just took your money. Fitness room was used for storage!! Pool was filthy! Bad place for anyone to stay!!More</t>
   </si>
   <si>
-    <t>Tammy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r272048222-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -350,7 +468,43 @@
     <t>When I booked at this location, I was booking the Studio 6 Brand. I had a very pleasant stay in Florida at a Studio 6. When I walked into our room, there was a small bar fridge and a tiny microwave, and glue traps for roaches. When I called he front desk the next morning, I was told I did not book a room with a kitchenette, although all Studio 6 units come with a full kitchen for the business traveler to save money by cooking their meals in the room. When I asked what could be done about the situation, the manager answered 'I don't know.' Even though the prices are very reasonable, the location practices deceptive advertising by portraying the property as a Studio 6. If I could do this all over again, I would book somewhere else, even if I had to spend more. I really did not need the aggravation of making this sub-standard room work for the 8 days I booked.More</t>
   </si>
   <si>
-    <t>Heather N. T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r257931519-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>257931519</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>I booked online that was given one rate. I got to front desk and was charged 10 more.  ROACHES in the room. Pitiful. NO WIFI... I called the front desk. I was told they had just rebooted the system. They turn it off. I never got the wifi... Very run down.. I was told they turn off the air or heat from 6 to 8 every night. It was 28 degree's....</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r249170546-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>249170546</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Look For Better Choices</t>
+  </si>
+  <si>
+    <t>This motel needs lots of TLC.  Pretty run down. The bathroom in my room was clean, but there is no hair dryer, or shampoo; towels were clean; one tiny bar of soap. The bed was comfortable, and even though it appeared clean, i used a travel sheet.  Had a small kitchenette; rusty refrigerator worked well; no dishes, glasses, etc.  Sink extremely stained.  No iron.  I was only here two nights and spent very little time in my room, and the price was right.  Did get clean towels, but they never made the bed. They do offer free pickup and return to DFW airport.  The gentleman who drove was very polite. No big problems, but I'll stay elsewhere next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>This motel needs lots of TLC.  Pretty run down. The bathroom in my room was clean, but there is no hair dryer, or shampoo; towels were clean; one tiny bar of soap. The bed was comfortable, and even though it appeared clean, i used a travel sheet.  Had a small kitchenette; rusty refrigerator worked well; no dishes, glasses, etc.  Sink extremely stained.  No iron.  I was only here two nights and spent very little time in my room, and the price was right.  Did get clean towels, but they never made the bed. They do offer free pickup and return to DFW airport.  The gentleman who drove was very polite. No big problems, but I'll stay elsewhere next time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r224930837-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
@@ -371,9 +525,6 @@
     <t>I would have rated this place with all zeros if possible. They don't clean their linens, they charge you even if you don't stay and corporate can't do much because they are independently owned. If I were Motel 6 I'd make them lose my name off their building. I've stayed at many hotels but none like these. I was supposed to stay a week but chose my car  instead. If you need an extended stay try a value place extended stay in trophy club or the days in across the highway for shorter stay times. I would hate for anyone to deal with what my family had to with this hotel.More</t>
   </si>
   <si>
-    <t>Charlie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r223386742-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -392,9 +543,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Bthrasher35</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r223026607-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -413,7 +561,47 @@
     <t>Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the...Made my reservation over the phone. Went to the front desk checked in first they told me a higher price than what was told to me initially over the phone tried to charge me 375.00 instead of 249.99 what they originally told me. My family was with me and a no smoking room was requested. Went to the room walked through the door smelled like smoke and mildew. We immediately went to the front desk and told them no way the clerk gave us another room that was supposed to be newly redone initially looked ok it had two seperate rooms  I made the mistake of only looking at one room and accepted the room. In the bathroom that I didn't check it had dirty towels and toilet wasn't even flushed. I went back to the front desk and told the clerk no way I wanted my money back he told me that he couldn't give me a refund because I paid with my debit card and he didn't have priviledges to do that I would have to come back in the morning when the manager arrived. He said that I could come back at 630 when the manager comes in. I came back at 630 and the guy at the desk told me that the manager wasn't there and he couldn't give me the refund either and that I would have to come back at 0900 am when the manager comes in I told the guy that me and my family didn't have anywhere to go we have been sleeping in the car up until now, he said there's nothing that he can do for me. So I asked him if we could sleep in our car in the parking lot and he replied that it was ok so I guess that was a positive. Finally when the manager came in at 0900 the guy went back to talk to him the manager insisted on giving us one more room before giving us a refund I checked out the room anyway and of course it was dirty to. I told them no way give me a refund the guy finally came back to the desk and said my manager said that I can give you a refund but he's going to charge you 51.99 the price for one night I said no way we didn't even stay here eventually I accepted the partial refund thinking that I could handle the situation through corporate but was told today that it is privately owned and operated and it was up to the management for the refund. So thanks Motel 6 You can leave the light on for someone but it won't be me.More</t>
   </si>
   <si>
-    <t>john j</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r215174653-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>215174653</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>I'm still scratching and itching...</t>
+  </si>
+  <si>
+    <t>Wow. Where do I start? You really DO get what you pay for. The rate is cheap...and so is the hotel. They have a maid on staff, but she only brought a few towels and tissue each day. She did NOT offer to come in and clean or even bring us new sheets. This room boasted about having a fully equipped kitchen, however; we were missing cups, eating utensils, pots / pans, and even plates. I called front desk to inquire about these things, and he simply told me there wasn't any available. I had to go out and buy my own paper dishes / cups. Also, I stayed 3 nights there and by the time I checked out...I broke out in a rash on my arm and shoulders. Not sure if it's bed bugs or not. The room had a faint odor, the tub did not look clean, the sofa bed wouldn't stay straightened out. In other words, it had a big dip in the middle of it. The sofa cushions had holes burnt in it, the room with our beds didn't have a.c. (only the living room). No iron, no alarm clock, the hot tub was COLD! The pool looked dirty. The front desk wasn't helpful on anything at all. I advise you NOT to book this hotel. I only booked it because it was a great way and the pics of the kitchenette sold me. But, the...Wow. Where do I start? You really DO get what you pay for. The rate is cheap...and so is the hotel. They have a maid on staff, but she only brought a few towels and tissue each day. She did NOT offer to come in and clean or even bring us new sheets. This room boasted about having a fully equipped kitchen, however; we were missing cups, eating utensils, pots / pans, and even plates. I called front desk to inquire about these things, and he simply told me there wasn't any available. I had to go out and buy my own paper dishes / cups. Also, I stayed 3 nights there and by the time I checked out...I broke out in a rash on my arm and shoulders. Not sure if it's bed bugs or not. The room had a faint odor, the tub did not look clean, the sofa bed wouldn't stay straightened out. In other words, it had a big dip in the middle of it. The sofa cushions had holes burnt in it, the room with our beds didn't have a.c. (only the living room). No iron, no alarm clock, the hot tub was COLD! The pool looked dirty. The front desk wasn't helpful on anything at all. I advise you NOT to book this hotel. I only booked it because it was a great way and the pics of the kitchenette sold me. But, the pics are clearly not a true representation of what you will be getting. By the way, it's been 2 days since I left and I am still scratching and itching.K.S.ArkansasMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Wow. Where do I start? You really DO get what you pay for. The rate is cheap...and so is the hotel. They have a maid on staff, but she only brought a few towels and tissue each day. She did NOT offer to come in and clean or even bring us new sheets. This room boasted about having a fully equipped kitchen, however; we were missing cups, eating utensils, pots / pans, and even plates. I called front desk to inquire about these things, and he simply told me there wasn't any available. I had to go out and buy my own paper dishes / cups. Also, I stayed 3 nights there and by the time I checked out...I broke out in a rash on my arm and shoulders. Not sure if it's bed bugs or not. The room had a faint odor, the tub did not look clean, the sofa bed wouldn't stay straightened out. In other words, it had a big dip in the middle of it. The sofa cushions had holes burnt in it, the room with our beds didn't have a.c. (only the living room). No iron, no alarm clock, the hot tub was COLD! The pool looked dirty. The front desk wasn't helpful on anything at all. I advise you NOT to book this hotel. I only booked it because it was a great way and the pics of the kitchenette sold me. But, the...Wow. Where do I start? You really DO get what you pay for. The rate is cheap...and so is the hotel. They have a maid on staff, but she only brought a few towels and tissue each day. She did NOT offer to come in and clean or even bring us new sheets. This room boasted about having a fully equipped kitchen, however; we were missing cups, eating utensils, pots / pans, and even plates. I called front desk to inquire about these things, and he simply told me there wasn't any available. I had to go out and buy my own paper dishes / cups. Also, I stayed 3 nights there and by the time I checked out...I broke out in a rash on my arm and shoulders. Not sure if it's bed bugs or not. The room had a faint odor, the tub did not look clean, the sofa bed wouldn't stay straightened out. In other words, it had a big dip in the middle of it. The sofa cushions had holes burnt in it, the room with our beds didn't have a.c. (only the living room). No iron, no alarm clock, the hot tub was COLD! The pool looked dirty. The front desk wasn't helpful on anything at all. I advise you NOT to book this hotel. I only booked it because it was a great way and the pics of the kitchenette sold me. But, the pics are clearly not a true representation of what you will be getting. By the way, it's been 2 days since I left and I am still scratching and itching.K.S.ArkansasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r213890335-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>213890335</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Mediocre room, sketchy management</t>
+  </si>
+  <si>
+    <t>DON'T BOOK ONLINE WITH THIS HOTEL. It appears that the hotel management tried to cheat me. They claimed that they are not affiliated with any internet booking sites and don't receive money from online bookings, including my prepaid booking on Kayak/Hotels.com. However, they did have a reservation under my name, so apparently they are affiliated enough to receive reservations. To rectify the situation, I paid for a room in cash. When I called Hotels.com's customer service to refund the charge from the prepayment, they called Studio 6 and were told that I never paid at the hotel.
+As for the rooms, the room I stayed in was decently clean and comfortable, but the construction was clearly extremely shoddy. The supposedly "new" room that required an extra charge to stay in had a shower drain plug coated with soap deposits. The laminate wood floor was not installed flush to the floor resulting in some spots depressing when stepped on. When I woke up early in the morning to catch my connecting flight, I discovered a cockroach scurrying across the floor. Reading the other reviews here, I guess this room qualifies as a good one for this hotel, but it hardly qualifies as "new."
+The only saving grace was the front desk staff. I had a Thai SIM card stuck in my phone, and they took the time to find a tool to get it out. When I was checking out, it...DON'T BOOK ONLINE WITH THIS HOTEL. It appears that the hotel management tried to cheat me. They claimed that they are not affiliated with any internet booking sites and don't receive money from online bookings, including my prepaid booking on Kayak/Hotels.com. However, they did have a reservation under my name, so apparently they are affiliated enough to receive reservations. To rectify the situation, I paid for a room in cash. When I called Hotels.com's customer service to refund the charge from the prepayment, they called Studio 6 and were told that I never paid at the hotel.As for the rooms, the room I stayed in was decently clean and comfortable, but the construction was clearly extremely shoddy. The supposedly "new" room that required an extra charge to stay in had a shower drain plug coated with soap deposits. The laminate wood floor was not installed flush to the floor resulting in some spots depressing when stepped on. When I woke up early in the morning to catch my connecting flight, I discovered a cockroach scurrying across the floor. Reading the other reviews here, I guess this room qualifies as a good one for this hotel, but it hardly qualifies as "new."The only saving grace was the front desk staff. I had a Thai SIM card stuck in my phone, and they took the time to find a tool to get it out. When I was checking out, it was too early in the morning for the free airport shuttle service to come, so the front desk man called a coworker, who came and personally dropped us off at the airport.Overall, don't stay at this hotel. It had a decent rating on Kayak.com, but I only wish that I checked here to read more in-depth reviews.MoreShow less</t>
+  </si>
+  <si>
+    <t>DON'T BOOK ONLINE WITH THIS HOTEL. It appears that the hotel management tried to cheat me. They claimed that they are not affiliated with any internet booking sites and don't receive money from online bookings, including my prepaid booking on Kayak/Hotels.com. However, they did have a reservation under my name, so apparently they are affiliated enough to receive reservations. To rectify the situation, I paid for a room in cash. When I called Hotels.com's customer service to refund the charge from the prepayment, they called Studio 6 and were told that I never paid at the hotel.
+As for the rooms, the room I stayed in was decently clean and comfortable, but the construction was clearly extremely shoddy. The supposedly "new" room that required an extra charge to stay in had a shower drain plug coated with soap deposits. The laminate wood floor was not installed flush to the floor resulting in some spots depressing when stepped on. When I woke up early in the morning to catch my connecting flight, I discovered a cockroach scurrying across the floor. Reading the other reviews here, I guess this room qualifies as a good one for this hotel, but it hardly qualifies as "new."
+The only saving grace was the front desk staff. I had a Thai SIM card stuck in my phone, and they took the time to find a tool to get it out. When I was checking out, it...DON'T BOOK ONLINE WITH THIS HOTEL. It appears that the hotel management tried to cheat me. They claimed that they are not affiliated with any internet booking sites and don't receive money from online bookings, including my prepaid booking on Kayak/Hotels.com. However, they did have a reservation under my name, so apparently they are affiliated enough to receive reservations. To rectify the situation, I paid for a room in cash. When I called Hotels.com's customer service to refund the charge from the prepayment, they called Studio 6 and were told that I never paid at the hotel.As for the rooms, the room I stayed in was decently clean and comfortable, but the construction was clearly extremely shoddy. The supposedly "new" room that required an extra charge to stay in had a shower drain plug coated with soap deposits. The laminate wood floor was not installed flush to the floor resulting in some spots depressing when stepped on. When I woke up early in the morning to catch my connecting flight, I discovered a cockroach scurrying across the floor. Reading the other reviews here, I guess this room qualifies as a good one for this hotel, but it hardly qualifies as "new."The only saving grace was the front desk staff. I had a Thai SIM card stuck in my phone, and they took the time to find a tool to get it out. When I was checking out, it was too early in the morning for the free airport shuttle service to come, so the front desk man called a coworker, who came and personally dropped us off at the airport.Overall, don't stay at this hotel. It had a decent rating on Kayak.com, but I only wish that I checked here to read more in-depth reviews.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r199506335-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
@@ -431,9 +619,6 @@
     <t>They are only interested in your money I stayed there for business for two weeks fisrt it took them a week to get me a working phone. Next housekeeping will not change yiur sheets had ti go to the local walmart and purchase some if you like to iche and scratch this is the place for you bed bugs and management doesn't even care worst experience of a extended stay hotel ive ever lived</t>
   </si>
   <si>
-    <t>MARILYN P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r199450378-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -443,18 +628,12 @@
     <t>03/31/2014</t>
   </si>
   <si>
-    <t>Disgusting</t>
-  </si>
-  <si>
     <t>Carpet stains, filth smells of cleaning agents to TRY to mask animal smells. The bathroom door frame has been chewed up. Couch so filthy we can't sit on it. It is an extended stay...no pots, pans or dishes. 3 forks one nasty looking dish towel. That's it. Coffee pot has no lid.Swimming pool is green. This is (yes I'm here now) just until my flight at 5 a.m.</t>
   </si>
   <si>
     <t>March 2014</t>
   </si>
   <si>
-    <t>K M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r194909348-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -473,7 +652,45 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r185451213-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>185451213</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Re: The most awful and unprofessional place to stay - Not Recommended to stay here.</t>
+  </si>
+  <si>
+    <t>Dear Reader, as we all have our own experiences during our short stay at various hotels, I wanted to share this experience with you.  I am a frequent traveler and travel for business and leisure.  I normally absorb the pessimistic encounters until I really find it compelling to share with my fellow travelers. 
+Well here is the scope, I was in Ft. Worth Taxes for a summit and had planned this in advance. I had done the booking through Studio 6 website 3 months in advance. With credit card payment in place and confirmation e-mailed to me. Well, with all that confirmed it was clear that I had agreed with the charges and upon arrival, to my disbelieve I was asked to pay another $200.00. .. What..!  yes, they said the rates have changed. I mentioned to the manager that the point of booking in advance is to get a better price.  After an hour of arguing with the incompetent manager who was not sure what he was doing and  kept differing to the front desk  person. They told me to call the booking company.  This really made no sense as the booking company is the same as the hotel, Studio 6 main website. I had a printed copy of the confirmation (recommended). After a debate with an agent on the phone with Studio 6 they finally agreed to honor my confirmation.  The agent wanted to speak to the manager...Dear Reader, as we all have our own experiences during our short stay at various hotels, I wanted to share this experience with you.  I am a frequent traveler and travel for business and leisure.  I normally absorb the pessimistic encounters until I really find it compelling to share with my fellow travelers. Well here is the scope, I was in Ft. Worth Taxes for a summit and had planned this in advance. I had done the booking through Studio 6 website 3 months in advance. With credit card payment in place and confirmation e-mailed to me. Well, with all that confirmed it was clear that I had agreed with the charges and upon arrival, to my disbelieve I was asked to pay another $200.00. .. What..!  yes, they said the rates have changed. I mentioned to the manager that the point of booking in advance is to get a better price.  After an hour of arguing with the incompetent manager who was not sure what he was doing and  kept differing to the front desk  person. They told me to call the booking company.  This really made no sense as the booking company is the same as the hotel, Studio 6 main website. I had a printed copy of the confirmation (recommended). After a debate with an agent on the phone with Studio 6 they finally agreed to honor my confirmation.  The agent wanted to speak to the manager so  I handed my cell phone to this so obstinate   manager . After a long back and forth between the manager and the Studio 6 agent and a few profanities later he gave the phone back to the front desk person.  The manager left muttering profanities directed toward me in some other language. The front desk guy reluctantly honored the price after the manager stormed out still muttering under his breath. As if this wasn't bad enough I get to the room and it was filthy, only one light worked, coffee maker was missing and the TV didn't work. I immediately brought this up to the front desk person , he accused me of taking  their good $5 coffee maker, LOL, as if I needed that crap.  I was only packing one full carry on for the flight.  Better yet was on the last day.  I woke up about an hour before check out as it was posted on the Hotel placard on the door inside that read check out at 12 noon.  Around 11am, while I was in shower , I hear a loud banging on the door , I quickly wrapped myself out of the shower thinking there was a fire or some sort of emergency.   I opened it peaking out only exposing my head on that metal slide lock. To my surprise the frantic pounding on the door was only to ask me if I was checking out. There was this still 55 minutes before checkout according to their posting, now this door banging guy says the check out is at 11am. Quite annoyed, I asked if it was so urgent or if I could at least get dressed before addressing this, he answered with a rude tone. He waited at the door while I had a partial shower and got dressed hastily and shoved my clothes in my bag before the door pounding begins again. I opened the door and showed him the sign where it clearly read check out time is 12 noon; guess what this person said --that is an old sign.  The sad thing is that all of this unnecessary loud banging if this person just would have knocked on the door or used the room phone would have been nice.This is the most awful and an unprofessional place, I’ve ever stayed. I do not recommend this place to anyone and will never stay here again.  Thank you for reading.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Dear Reader, as we all have our own experiences during our short stay at various hotels, I wanted to share this experience with you.  I am a frequent traveler and travel for business and leisure.  I normally absorb the pessimistic encounters until I really find it compelling to share with my fellow travelers. 
+Well here is the scope, I was in Ft. Worth Taxes for a summit and had planned this in advance. I had done the booking through Studio 6 website 3 months in advance. With credit card payment in place and confirmation e-mailed to me. Well, with all that confirmed it was clear that I had agreed with the charges and upon arrival, to my disbelieve I was asked to pay another $200.00. .. What..!  yes, they said the rates have changed. I mentioned to the manager that the point of booking in advance is to get a better price.  After an hour of arguing with the incompetent manager who was not sure what he was doing and  kept differing to the front desk  person. They told me to call the booking company.  This really made no sense as the booking company is the same as the hotel, Studio 6 main website. I had a printed copy of the confirmation (recommended). After a debate with an agent on the phone with Studio 6 they finally agreed to honor my confirmation.  The agent wanted to speak to the manager...Dear Reader, as we all have our own experiences during our short stay at various hotels, I wanted to share this experience with you.  I am a frequent traveler and travel for business and leisure.  I normally absorb the pessimistic encounters until I really find it compelling to share with my fellow travelers. Well here is the scope, I was in Ft. Worth Taxes for a summit and had planned this in advance. I had done the booking through Studio 6 website 3 months in advance. With credit card payment in place and confirmation e-mailed to me. Well, with all that confirmed it was clear that I had agreed with the charges and upon arrival, to my disbelieve I was asked to pay another $200.00. .. What..!  yes, they said the rates have changed. I mentioned to the manager that the point of booking in advance is to get a better price.  After an hour of arguing with the incompetent manager who was not sure what he was doing and  kept differing to the front desk  person. They told me to call the booking company.  This really made no sense as the booking company is the same as the hotel, Studio 6 main website. I had a printed copy of the confirmation (recommended). After a debate with an agent on the phone with Studio 6 they finally agreed to honor my confirmation.  The agent wanted to speak to the manager so  I handed my cell phone to this so obstinate   manager . After a long back and forth between the manager and the Studio 6 agent and a few profanities later he gave the phone back to the front desk person.  The manager left muttering profanities directed toward me in some other language. The front desk guy reluctantly honored the price after the manager stormed out still muttering under his breath. As if this wasn't bad enough I get to the room and it was filthy, only one light worked, coffee maker was missing and the TV didn't work. I immediately brought this up to the front desk person , he accused me of taking  their good $5 coffee maker, LOL, as if I needed that crap.  I was only packing one full carry on for the flight.  Better yet was on the last day.  I woke up about an hour before check out as it was posted on the Hotel placard on the door inside that read check out at 12 noon.  Around 11am, while I was in shower , I hear a loud banging on the door , I quickly wrapped myself out of the shower thinking there was a fire or some sort of emergency.   I opened it peaking out only exposing my head on that metal slide lock. To my surprise the frantic pounding on the door was only to ask me if I was checking out. There was this still 55 minutes before checkout according to their posting, now this door banging guy says the check out is at 11am. Quite annoyed, I asked if it was so urgent or if I could at least get dressed before addressing this, he answered with a rude tone. He waited at the door while I had a partial shower and got dressed hastily and shoved my clothes in my bag before the door pounding begins again. I opened the door and showed him the sign where it clearly read check out time is 12 noon; guess what this person said --that is an old sign.  The sad thing is that all of this unnecessary loud banging if this person just would have knocked on the door or used the room phone would have been nice.This is the most awful and an unprofessional place, I’ve ever stayed. I do not recommend this place to anyone and will never stay here again.  Thank you for reading.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d4605587-r176245723-Studio_6_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>176245723</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Bed bugs and rats</t>
+  </si>
+  <si>
+    <t>I was traveling with friends. They both had bed bugs in their rooms. A rat (or mouse?) ran across the floor in my room. I checked out two days early and have yet to receive the promised refund. Their corporate website does not have a contact phone for customer service. The hotel manager cannot/will not give a refund.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
   </si>
 </sst>
 </file>
@@ -978,54 +1195,50 @@
       <c r="A2" t="n">
         <v>19032</v>
       </c>
-      <c r="B2" t="n">
-        <v>178303</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
         <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
@@ -1035,36 +1248,36 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19032</v>
       </c>
-      <c r="B3" t="n">
-        <v>9377</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
@@ -1082,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1097,131 +1310,131 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19032</v>
       </c>
-      <c r="B4" t="n">
-        <v>8503</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19032</v>
       </c>
-      <c r="B5" t="n">
-        <v>82564</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1233,54 +1446,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19032</v>
       </c>
-      <c r="B6" t="n">
-        <v>178304</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1292,140 +1501,126 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19032</v>
       </c>
-      <c r="B7" t="n">
-        <v>5581</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19032</v>
       </c>
-      <c r="B8" t="n">
-        <v>178305</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>1</v>
@@ -1436,130 +1631,114 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19032</v>
       </c>
-      <c r="B9" t="n">
-        <v>38715</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
         <v>114</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19032</v>
       </c>
-      <c r="B10" t="n">
-        <v>178306</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>1</v>
@@ -1570,133 +1749,119 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19032</v>
       </c>
-      <c r="B11" t="n">
-        <v>8368</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19032</v>
       </c>
-      <c r="B12" t="n">
-        <v>178307</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
         <v>134</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>135</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>139</v>
-      </c>
       <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -1705,73 +1870,67 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19032</v>
       </c>
-      <c r="B13" t="n">
-        <v>22786</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>141</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>143</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>144</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>145</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
       <c r="O13" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1779,7 +1938,716 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19032</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
